--- a/doc/20_基本設計/01_画面系/【CMS】基本設計-画面一覧仕様書.xlsx
+++ b/doc/20_基本設計/01_画面系/【CMS】基本設計-画面一覧仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92a0b19d6ddffdcd/ドキュメント/GitHub/certificate-online/doc/20_基本設計/画面系/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josaw\Desktop\workspace-teama\team\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{9530D93C-A5CA-494A-B79E-415E6DD1D356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DD1F269-5A21-4211-A3EA-7953160084D7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36945006-4688-456A-9D51-B0862922D48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="864" yWindow="1152" windowWidth="19476" windowHeight="10824" firstSheet="2" activeTab="1" xr2:uid="{BADF3AFC-359F-48C3-A4B9-466E0810DAC4}"/>
+    <workbookView xWindow="-855" yWindow="765" windowWidth="17505" windowHeight="14535" firstSheet="2" activeTab="2" xr2:uid="{BADF3AFC-359F-48C3-A4B9-466E0810DAC4}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -209,9 +209,6 @@
     <t>cms003</t>
   </si>
   <si>
-    <t>資格取得計画画面</t>
-  </si>
-  <si>
     <t>資格取得計画登録可能</t>
     <rPh sb="0" eb="2">
       <t>シカク</t>
@@ -234,28 +231,33 @@
     <t>cms004</t>
   </si>
   <si>
+    <t>資格名称の選択、試験結果の登録、証明書のアップロード</t>
+  </si>
+  <si>
+    <t>cms005</t>
+  </si>
+  <si>
+    <t>部下情報一覧表画面</t>
+  </si>
+  <si>
+    <t>部下情報一覧</t>
+  </si>
+  <si>
+    <t>cms006</t>
+  </si>
+  <si>
+    <t>人事用資格一覧画面</t>
+  </si>
+  <si>
+    <t>人事用資格一覧</t>
+  </si>
+  <si>
+    <t>資格取得計画画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>資格登録画面</t>
-  </si>
-  <si>
-    <t>資格名称の選択、試験結果の登録、証明書のアップロード</t>
-  </si>
-  <si>
-    <t>cms005</t>
-  </si>
-  <si>
-    <t>部下情報一覧表画面</t>
-  </si>
-  <si>
-    <t>部下情報一覧</t>
-  </si>
-  <si>
-    <t>cms006</t>
-  </si>
-  <si>
-    <t>人事用資格一覧画面</t>
-  </si>
-  <si>
-    <t>人事用資格一覧</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1212,12 +1214,12 @@
       <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.8984375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="5.8984375" style="1"/>
+    <col min="1" max="16384" width="5.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:20" ht="18.600000000000001" thickBot="1"/>
+    <row r="6" spans="5:20" ht="19.5" thickBot="1"/>
     <row r="7" spans="5:20">
       <c r="E7" s="30" t="s">
         <v>0</v>
@@ -1436,7 +1438,7 @@
       <c r="S18" s="34"/>
       <c r="T18" s="35"/>
     </row>
-    <row r="19" spans="5:20" ht="18.600000000000001" thickBot="1">
+    <row r="19" spans="5:20" ht="19.5" thickBot="1">
       <c r="E19" s="36"/>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
@@ -1460,7 +1462,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1471,21 +1473,21 @@
   </sheetPr>
   <dimension ref="B2:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D45" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.69921875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.69921875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.19921875" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="8.69921875" style="7"/>
+    <col min="1" max="1" width="2.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" ht="24.45" customHeight="1">
+    <row r="2" spans="2:6" s="3" customFormat="1" ht="24.4" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1741,23 +1743,23 @@
   </sheetPr>
   <dimension ref="B1:F40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="13" customWidth="1"/>
     <col min="2" max="2" width="11" style="12" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.69921875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="47.19921875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="20.19921875" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="8.69921875" style="13"/>
+    <col min="4" max="4" width="24.75" style="12" customWidth="1"/>
+    <col min="5" max="5" width="47.25" style="12" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="13.8" thickBot="1"/>
-    <row r="2" spans="2:6" ht="37.200000000000003" customHeight="1">
+    <row r="1" spans="2:6" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:6" ht="37.15" customHeight="1">
       <c r="B2" s="39" t="s">
         <v>9</v>
       </c>
@@ -1766,7 +1768,7 @@
       <c r="E2" s="40"/>
       <c r="F2" s="41"/>
     </row>
-    <row r="3" spans="2:6" ht="38.700000000000003" customHeight="1" thickBot="1">
+    <row r="3" spans="2:6" ht="38.65" customHeight="1" thickBot="1">
       <c r="B3" s="42" t="s">
         <v>10</v>
       </c>
@@ -1781,7 +1783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="13.2" customHeight="1" thickBot="1">
+    <row r="4" spans="2:6" ht="13.15" customHeight="1" thickBot="1">
       <c r="B4" s="16"/>
     </row>
     <row r="5" spans="2:6" ht="18" customHeight="1">
@@ -1846,10 +1848,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>25</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>26</v>
       </c>
       <c r="F9" s="18"/>
     </row>
@@ -1858,13 +1860,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>29</v>
       </c>
       <c r="F10" s="18"/>
     </row>
@@ -1873,13 +1875,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>30</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>32</v>
       </c>
       <c r="F11" s="18"/>
     </row>
@@ -1888,13 +1890,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="29" t="s">
         <v>33</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>35</v>
       </c>
       <c r="F12" s="18"/>
     </row>
@@ -2087,7 +2089,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="18"/>
     </row>
-    <row r="40" spans="2:6" ht="13.8" thickBot="1">
+    <row r="40" spans="2:6" ht="14.25" thickBot="1">
       <c r="B40" s="22"/>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
